--- a/project_management_extended.xlsx
+++ b/project_management_extended.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F23AAC1-D526-4C31-A0D4-9F6C9C4D9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068C6139-C2F8-41B5-A854-5EB73D16AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Название проекта</t>
   </si>
@@ -67,15 +67,6 @@
     <t>Задача 5</t>
   </si>
   <si>
-    <t>Иван Иванов</t>
-  </si>
-  <si>
-    <t>Петр Петров</t>
-  </si>
-  <si>
-    <t>Сергей Сергеев</t>
-  </si>
-  <si>
     <t>тел: +7 123 456 78, email: ivan@example.com</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>2025-02-03</t>
   </si>
   <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
     <t>2025-02-07</t>
   </si>
   <si>
@@ -119,12 +107,24 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Сергей</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -177,10 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,10 +492,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -525,19 +533,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -548,19 +556,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -571,19 +579,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
+      <c r="E4" s="2">
+        <v>45692</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -594,19 +602,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -617,19 +625,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -640,19 +648,19 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -663,19 +671,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -686,19 +694,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -709,19 +717,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -732,19 +740,19 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
